--- a/seronetTemplates/template/basic_study_design.xlsx
+++ b/seronetTemplates/template/basic_study_design.xlsx
@@ -1,316 +1,836 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0053C4-B38C-B14E-95AD-07C96B65A410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="basic_study_design.txt" r:id="rId3" sheetId="1"/>
-    <sheet name="lookup" r:id="rId4" sheetId="2"/>
+    <sheet name="basic_study_design.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="lookupage_unit1127">lookup!$A$1:$A$10</definedName>
-    <definedName name="lookupresearch_focus1128">lookup!$A$11:$A$26</definedName>
-    <definedName name="lookupcondition_reported1129">lookup!$A$27:$A$370</definedName>
-    <definedName name="lookuptype_reported1130">lookup!$A$371:$A$384</definedName>
-    <definedName name="lookuprole_in_study1131">lookup!$A$385:$A$391</definedName>
-    <definedName name="lookupcriterion_category1132">lookup!$A$392:$A$394</definedName>
-    <definedName name="lookupstudy_file_type1133">lookup!$A$395:$A$410</definedName>
+    <definedName name="lookupage_unit1602">lookup!$A$1:$A$10</definedName>
+    <definedName name="lookupcondition_reported1604">lookup!$A$27:$A$373</definedName>
+    <definedName name="lookupcriterion_category1607">lookup!$A$397:$A$399</definedName>
+    <definedName name="lookupprotocol_id1608">lookup!$A$400:$A$493</definedName>
+    <definedName name="lookupresearch_focus1603">lookup!$A$11:$A$26</definedName>
+    <definedName name="lookuprole_in_study1606">lookup!$A$388:$A$396</definedName>
+    <definedName name="lookupstudy_file_type1609">lookup!$A$494:$A$509</definedName>
+    <definedName name="lookuptype_reported1605">lookup!$A$374:$A$387</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>Apache POI</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="1">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column study.user_defined_id and has data type varchar(150)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column study.user_defined_id and has data type varchar(150)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>The brief title serves as a working title for a study.  The template column is associated with the following database table column study.brief_title and has data type varchar(250)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The brief title serves as a working title for a study.  The template column is associated with the following database table column study.brief_title and has data type varchar(250)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>The official study title may be the same as the brief title, but is often more descriptive.  The template column is associated with the following database table column study.official_title and has data type varchar(500)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The official study title may be the same as the brief title, but is often more descriptive.  The template column is associated with the following database table column study.official_title and has data type varchar(500)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t>Summarize the goals, methods and results of the study.  The template column is associated with the following database table column study.brief_description and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Summarize the goals, methods and results of the study.  The template column is associated with the following database table column study.brief_description and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="1">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t>The detailed description supports a lengthy description of the goals and methods of the study.  The template column is associated with the following database table column study.description and has data type clob</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The detailed description supports a lengthy description of the goals and methods of the study.  The template column is associated with the following database table column study.description and has data type clob</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t>IA brief description of the study's interventional component (e.g. influenza vaccine).  The template column is associated with the following database table column study.intervention_agent and has data type varchar(1000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>IA brief description of the study's interventional component (e.g. influenza vaccine).  The template column is associated with the following database table column study.intervention_agent and has data type varchar(1000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t>Endpoints include assessments, lab tests and assays that are part of a study design.  The template column is associated with the following database table column study.endpoints and has data type clob</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Endpoints include assessments, lab tests and assays that are part of a study design.  The template column is associated with the following database table column study.endpoints and has data type clob</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t>The organization that provides funding and support for the study.  The template column is associated with the following database table column study.sponsoring_organization and has data type varchar(250)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The organization that provides funding and support for the study.  The template column is associated with the following database table column study.sponsoring_organization and has data type varchar(250)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t>The unit of time used to describe the subject's age in the study.  The unit of time for a subject must conform to this unit.  The template column is associated with the following database table column study.age_unit and has data type varchar(25)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The unit of time used to describe the subject's age in the study.  The unit of time for a subject must conform to this unit.  The template column is associated with the following database table column study.age_unit and has data type varchar(25)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t>The commencement time point of the study. The date format is either dd-MMM-yy or dd-MMM-yyyy.   The template column is associated with the following database table column study.actual_start_date and has data type date</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The commencement time point of the study. The date format is either dd-MMM-yy or dd-MMM-yyyy.   The template column is associated with the following database table column study.actual_start_date and has data type date</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="1">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t>The explanatory proposition(s) being tested by the research study.  The template column is associated with the following database table column study.hypothesis and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The explanatory proposition(s) being tested by the research study.  The template column is associated with the following database table column study.hypothesis and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="1">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t>The goals of the research study.  The template column is associated with the following database table column study.objectives and has data type clob</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The goals of the research study.  The template column is associated with the following database table column study.objectives and has data type clob</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="1">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t>The number of subjects proposed to be enrolled in the study.  The template column is associated with the following database table column study.target_enrollment and has data type integer</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The number of subjects proposed to be enrolled in the study.  The template column is associated with the following database table column study.target_enrollment and has data type integer</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="1">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t>The minimum age of subjects enrolled in the study.  The template column is associated with the following database table column study.minimum_age and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The minimum age of subjects enrolled in the study.  The template column is associated with the following database table column study.minimum_age and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="1">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t>The maximum age of subjects enrolled in the study.  The template column is associated with the following database table column study.maximum_age and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The maximum age of subjects enrolled in the study.  The template column is associated with the following database table column study.maximum_age and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="1">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
-        <t>Please use the drop down list  The template column is associated with the following database table column study_categorization.research_focus and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please use the drop down list  The template column is associated with the following database table column study_categorization.research_focus and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="1">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
-        <t>The condition(s)/disease(s) that is (are) being researched or evaluated in the study.  Please select condition or disease from the list provided if the condition or disease matches yours or enter a condition or disease if there is not an appropriate one provided.  Values provided by the user are further checked against the pref mapping table lk_study_condition_pref_mappng.  The template column is associated with the following database table column study_2_condition_or_disease.condition_reported and has data type varchar(550)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The condition(s)/disease(s) that is (are) being researched or evaluated in the study.  Please select condition or disease from the list provided if the condition or disease matches yours or enter a condition or disease if there is not an appropriate one provided.  Values provided by the user are further checked against the pref mapping table lk_study_condition_pref_mappng.  The template column is associated with the following database table column study_2_condition_or_disease.condition_reported and has data type varchar(550)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="1">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
-        <t>The arm or cohort user defined ID is an identifier chosen by the data provider to refer to a subject grouping in the study document. This ID may be referenced by other data records (e.g. subjects). The user defined ID is not shared.  The template column is associated with the following database table column arm_or_cohort.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The arm or cohort user defined ID is an identifier chosen by the data provider to refer to a subject grouping in the study document. This ID may be referenced by other data records (e.g. subjects). The user defined ID is not shared.  The template column is associated with the following database table column arm_or_cohort.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="1">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t>The arm or cohort name is an alternate identifier that is visible when the study is shared.  The template column is associated with the following database table column arm_or_cohort.name and has data type varchar(126)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The arm or cohort name is an alternate identifier that is visible when the study is shared.  The template column is associated with the following database table column arm_or_cohort.name and has data type varchar(126)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="1">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t>The description should expand any abbreviations used in the arm or cohort name.  The template column is associated with the following database table column arm_or_cohort.description and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The description should expand any abbreviations used in the arm or cohort name.  The template column is associated with the following database table column arm_or_cohort.description and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="1">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
-        <t>Please select a preferred arm study type from the the drop down list.  Terms are derived from the National Cancer Institute Thesaurus (NCIT). The study arm type is a preferred value and the table lk_arm_type_pref_mapping is also used to map the reported type to the drop down list (lk_arm_type).  The template column is associated with the following database table column arm_or_cohort.type_reported and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please select a preferred arm study type from the the drop down list.  Terms are derived from the National Cancer Institute Thesaurus (NCIT). The study arm type is a preferred value and the table lk_arm_type_pref_mapping is also used to map the reported type to the drop down list (lk_arm_type).  The template column is associated with the following database table column arm_or_cohort.type_reported and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="1">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column study_personnel.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column study_personnel.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="1">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
-        <t>Usually, the education achievement level of the person.  The template column is associated with the following database table column study_personnel.honorific and has data type varchar(20)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Usually, the education achievement level of the person.  The template column is associated with the following database table column study_personnel.honorific and has data type varchar(20)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="1">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
-        <t>The last name of the study personnel being described.  The template column is associated with the following database table column study_personnel.last_name and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The last name of the study personnel being described.  The template column is associated with the following database table column study_personnel.last_name and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="1">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
-        <t>The first name of the study personnel being described.  The template column is associated with the following database table column study_personnel.first_name and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The first name of the study personnel being described.  The template column is associated with the following database table column study_personnel.first_name and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="1">
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
-        <t>Suffixes that are part of the study personnel's name being described.  The template column is associated with the following database table column study_personnel.suffixes and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Suffixes that are part of the study personnel's name being described.  The template column is associated with the following database table column study_personnel.suffixes and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="1">
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
-        <t>The organization with whom the study personnel being described is affiliated.  The template column is associated with the following database table column study_personnel.organization and has data type varchar(125)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The organization with whom the study personnel being described is affiliated.  The template column is associated with the following database table column study_personnel.organization and has data type varchar(125)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="1">
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
-        <t>ORCID (Open Researcher and Contributor Identification), a non-profit organization that promotes the use of its unique digital identifier to connect researchers with their science contributions over time and across changes of name, location and institutional affiliation.  The NIH encourages use of this ID.  The template column is associated with the following database table column study_personnel.orcid and has data type varchar(1000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ORCID (Open Researcher and Contributor Identification), a non-profit organization that promotes the use of its unique digital identifier to connect researchers with their science contributions over time and across changes of name, location and institutional affiliation.  The NIH encourages use of this ID.  The template column is associated with the following database table column study_personnel.orcid and has data type varchar(1000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="1">
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
-        <t>Contact information of the study personnel being described.  The template column is associated with the following database table column study_personnel.email and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Contact information of the study personnel being described.  The template column is associated with the following database table column study_personnel.email and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="1">
+    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
-        <t>The role the personnel play in the study as defined by the research team.  The template column is associated with the following database table column study_personnel.title_in_study and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The role the personnel play in the study as defined by the research team.  The template column is associated with the following database table column study_personnel.title_in_study and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="1">
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
-        <t>Please use the drop down list.  The template column is associated with the following database table column study_personnel.role_in_study and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please use the drop down list.  The template column is associated with the following database table column study_personnel.role_in_study and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="1">
+    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
-        <t>Enter the site name if there is a need to further differentiate the affiliation of the study personnel from the Organization.  The template column is associated with the following database table column study_personnel.site_name and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter the site name if there is a need to further differentiate the affiliation of the study personnel from the Organization.  The template column is associated with the following database table column study_personnel.site_name and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="1">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column planned_visit.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column planned_visit.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="1">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
-        <t>The visit name is an alternate identifier that is visible when the protocol is shared.  The template column is associated with the following database table column planned_visit.name and has data type varchar(125)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The visit name is an alternate identifier that is visible when the protocol is shared.  The template column is associated with the following database table column planned_visit.name and has data type varchar(125)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="1">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
-        <t>The order of the visit within the study design schedule.  The template column is associated with the following database table column planned_visit.order_number and has data type integer</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The order of the visit within the study design schedule.  The template column is associated with the following database table column planned_visit.order_number and has data type integer</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="1">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
-        <t>The minimum start day for a visit as defined in the study schedule.  The template column is associated with the following database table column planned_visit.min_start_day and has data type float</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The minimum start day for a visit as defined in the study schedule.  The template column is associated with the following database table column planned_visit.min_start_day and has data type float</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="1">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
-        <t>The maximum start day for a visit as defined in the study schedule.  The template column is associated with the following database table column planned_visit.max_start_day and has data type float</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The maximum start day for a visit as defined in the study schedule.  The template column is associated with the following database table column planned_visit.max_start_day and has data type float</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="1">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
-        <t>Enter a start rule only if it is more interesting than "subject has arrived for a scheduled visit".  The template column is associated with the following database table column planned_visit.start_rule and has data type varchar(256)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter a start rule only if it is more interesting than "subject has arrived for a scheduled visit".  The template column is associated with the following database table column planned_visit.start_rule and has data type varchar(256)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="1">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
-        <t>Enter an end rule only if it is more interesting than "subject has arrived for a scheduled visit".  The template column is associated with the following database table column planned_visit.end_rule and has data type varchar(256)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter an end rule only if it is more interesting than "subject has arrived for a scheduled visit".  The template column is associated with the following database table column planned_visit.end_rule and has data type varchar(256)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="1">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column inclusion_exclusion.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column inclusion_exclusion.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="1">
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
-        <t>The criterion describes the parameter used to decide if a subject may be enrolled in a study.  The template column is associated with the following database table column inclusion_exclusion.criterion and has data type varchar(750)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The criterion describes the parameter used to decide if a subject may be enrolled in a study.  The template column is associated with the following database table column inclusion_exclusion.criterion and has data type varchar(750)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="1">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
-        <t>There are two values to choose from: inclusion or exclusion.  The template column is associated with the following database table column inclusion_exclusion.criterion_category and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>There are two values to choose from: inclusion or exclusion.  The template column is associated with the following database table column inclusion_exclusion.criterion_category and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="1">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
-        <t>The protocol ID for the study.  The template column is associated with the following database table column study_2_protocol.protocol_accession and has data type varchar(15)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The protocol ID for the study.  The template column is associated with the following database table column study_2_protocol.protocol_accession and has data type varchar(15)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="1">
+    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
-        <t>The name of the file, including file extension, that is to be linked to the study. The file size name limit is 250 characters. For a given study, all file names for study_file must be unique.  The template column is associated with the following database table column study_file.file_name and has data type varchar(250)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The name of the file, including file extension, that is to be linked to the study. The file size name limit is 250 characters. For a given study, all file names for study_file must be unique.  The template column is associated with the following database table column study_file.file_name and has data type varchar(250)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="1">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
-        <t>A brief description of the file.  The template column is associated with the following database table column study_file.description and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>A brief description of the file.  The template column is associated with the following database table column study_file.description and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="1">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column study_file.study_file_type and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column study_file.study_file_type and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="1">
+    <comment ref="A52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
-        <t>The name of the website to which the link refers.  The template column is associated with the following database table column study_link.name and has data type varchar(500)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The name of the website to which the link refers.  The template column is associated with the following database table column study_link.name and has data type varchar(500)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="1">
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
-        <t>Define websites that are linked to the study. Insert rows in the template to define additional websites linked to the study.  The template column is associated with the following database table column study_link.value and has data type varchar(2000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Define websites that are linked to the study. Insert rows in the template to define additional websites linked to the study.  The template column is associated with the following database table column study_link.value and has data type varchar(2000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="1">
+    <comment ref="A56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
-        <t>The Pubmed or PubMedCentral identifier of an article that includes data from this study.  The template column is associated with the following database table column study_pubmed.pubmed_id and has data type varchar(16)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The Pubmed or PubMedCentral identifier of an article that includes data from this study.  The template column is associated with the following database table column study_pubmed.pubmed_id and has data type varchar(16)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="1">
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
-        <t>Digital Object Identifier is a persistent identifier or handle used to uniquely identify an object.  The template column is associated with the following database table column study_pubmed.doi and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Digital Object Identifier is a persistent identifier or handle used to uniquely identify an object.  The template column is associated with the following database table column study_pubmed.doi and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="1">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
-        <t>The title of an article that includes data from this study.  The template column is associated with the following database table column study_pubmed.title and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The title of an article that includes data from this study.  The template column is associated with the following database table column study_pubmed.title and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="1">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
-        <t>The journal name that publishes an article that includes data from this study.  The template column is associated with the following database table column study_pubmed.journal and has data type varchar(250)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The journal name that publishes an article that includes data from this study.  The template column is associated with the following database table column study_pubmed.journal and has data type varchar(250)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="1">
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
-        <t>The article publication year.  The template column is associated with the following database table column study_pubmed.year and has data type varchar(4)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The article publication year.  The template column is associated with the following database table column study_pubmed.year and has data type varchar(4)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="1">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
-        <t>The article publication month.  The template column is associated with the following database table column study_pubmed.month and has data type varchar(12)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The article publication month.  The template column is associated with the following database table column study_pubmed.month and has data type varchar(12)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G56" authorId="1">
+    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
-        <t>The journal's issue number.  The template column is associated with the following database table column study_pubmed.issue and has data type varchar(20)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The journal's issue number.  The template column is associated with the following database table column study_pubmed.issue and has data type varchar(20)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H56" authorId="1">
+    <comment ref="H56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
-        <t>The journal's page number.  The template column is associated with the following database table column study_pubmed.pages and has data type varchar(20)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The journal's page number.  The template column is associated with the following database table column study_pubmed.pages and has data type varchar(20)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="1">
+    <comment ref="I56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
-        <t>The article's authors.  The template column is associated with the following database table column study_pubmed.authors and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The article's authors.  The template column is associated with the following database table column study_pubmed.authors and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -318,12 +838,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="563">
   <si>
     <t>basic_study_design</t>
   </si>
   <si>
-    <t>Schema Version 3.35</t>
+    <t>Schema Version 3.36</t>
   </si>
   <si>
     <t>Please do not delete or edit this column</t>
@@ -1052,6 +1572,9 @@
     <t>mental depression</t>
   </si>
   <si>
+    <t>MERS-CoV</t>
+  </si>
+  <si>
     <t>Metabolic Syndrome</t>
   </si>
   <si>
@@ -1343,6 +1866,9 @@
     <t>sarcoma</t>
   </si>
   <si>
+    <t>SARS-CoV</t>
+  </si>
+  <si>
     <t>schistosomiasis</t>
   </si>
   <si>
@@ -1376,6 +1902,9 @@
     <t>Solid Neoplasm</t>
   </si>
   <si>
+    <t>Solid Organ Transplant Recipient</t>
+  </si>
+  <si>
     <t>specific developmental disorder</t>
   </si>
   <si>
@@ -1574,6 +2103,12 @@
     <t>Co-Principal Investigator</t>
   </si>
   <si>
+    <t>Corresponding Author</t>
+  </si>
+  <si>
+    <t>Investigator</t>
+  </si>
+  <si>
     <t>Medical Monitor</t>
   </si>
   <si>
@@ -1623,6 +2158,285 @@
   </si>
   <si>
     <t>Protocol ID</t>
+  </si>
+  <si>
+    <t>33288645_protocol</t>
+  </si>
+  <si>
+    <t>PMID32941787_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33035201_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33065030_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33115920_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33142304_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33142304_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID33142304_protocol_01</t>
+  </si>
+  <si>
+    <t>PMID33160316_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33169014_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33169014_protocol-01 SC</t>
+  </si>
+  <si>
+    <t>PMID33184236_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33207184_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33211672_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33276369_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33288645_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33408181_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33408181_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID33427208_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33440148_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33472939_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33476549_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33478949_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33479118_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33495307_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33509841_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33521695_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33547084_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33571162_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33571162_protocol_01</t>
+  </si>
+  <si>
+    <t>PMID33579769_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33589636_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33589825_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33602725_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33622794_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33666169_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33688034_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33704352_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33720347_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33727331_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33727353_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33735607_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33743211_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33775692_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33795870_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33822097_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33830946_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33846272_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33846272_protocol-11</t>
+  </si>
+  <si>
+    <t>PMID33893169_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33915337_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33932848_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33947773_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33961839_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33971664_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33983379_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID33993265_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34003112_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34047304_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34056628_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34075366_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34086877_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34095338_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34100011_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34115964_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34130883_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34131024_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34133941_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34145263_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34151306_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34161961_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34230917_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34250512_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34270939_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34353890_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34452006_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID34687893_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34687893_protocol-011</t>
+  </si>
+  <si>
+    <t>PMID34696403_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34696403_protocol-02</t>
+  </si>
+  <si>
+    <t>PMID34730254_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34759001_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34794169_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34802457_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34835131_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34877479_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34877479_protocol-011</t>
+  </si>
+  <si>
+    <t>PMID34910927_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34921308_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID34952892_protocol-01</t>
+  </si>
+  <si>
+    <t>PMID35132398_protocol-01</t>
   </si>
   <si>
     <t>study_file</t>
@@ -1718,187 +2532,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="CCFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFBDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FC9090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FC9090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF33"/>
+        <fgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1913,60 +2600,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1981,399 +2615,527 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="true"/>
-    <col min="2" max="2" width="25.578125" customWidth="true"/>
-    <col min="3" max="3" width="25.578125" customWidth="true"/>
-    <col min="4" max="4" width="25.578125" customWidth="true"/>
-    <col min="5" max="5" width="25.578125" customWidth="true"/>
-    <col min="6" max="6" width="25.578125" customWidth="true"/>
-    <col min="7" max="7" width="25.578125" customWidth="true"/>
-    <col min="8" max="8" width="25.578125" customWidth="true"/>
-    <col min="9" max="9" width="25.578125" customWidth="true"/>
-    <col min="10" max="10" width="25.578125" customWidth="true"/>
-    <col min="11" max="11" width="25.578125" customWidth="true"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="11" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.0" customHeight="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="300.0" customHeight="true">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="45.0" customHeight="true">
-      <c r="A3" t="s" s="1">
+    <row r="3" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="5">
-        <v>390</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s" s="3">
-        <v>391</v>
-      </c>
-      <c r="C29" t="s" s="3">
+      <c r="B29" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s" s="3">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="D29" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="5">
-        <v>406</v>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2386,42 +3148,42 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s" s="4">
-        <v>407</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>408</v>
-      </c>
-      <c r="D33" t="s" s="3">
-        <v>409</v>
-      </c>
-      <c r="E33" t="s" s="4">
+      <c r="B33" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="C33" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="D33" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="E33" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="F33" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="J33" t="s" s="3">
+      <c r="G33" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="K33" t="s" s="3">
+      <c r="H33" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="I33" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -2434,9 +3196,9 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="5">
-        <v>422</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2445,30 +3207,30 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s" s="3">
-        <v>391</v>
-      </c>
-      <c r="C37" t="s" s="3">
-        <v>423</v>
-      </c>
-      <c r="D37" t="s" s="3">
-        <v>424</v>
-      </c>
-      <c r="E37" t="s" s="4">
-        <v>425</v>
-      </c>
-      <c r="F37" t="s" s="4">
-        <v>426</v>
-      </c>
-      <c r="G37" t="s" s="4">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2477,85 +3239,85 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="5">
-        <v>428</v>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B41" t="s" s="3">
-        <v>429</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="B41" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="5">
-        <v>433</v>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="B44" s="5"/>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="3">
-        <v>434</v>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="5">
-        <v>435</v>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="3">
-        <v>436</v>
-      </c>
-      <c r="B48" t="s" s="3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="3">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="5">
-        <v>453</v>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="B51" s="5"/>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="3">
-        <v>391</v>
-      </c>
-      <c r="B52" t="s" s="3">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="53">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="5">
-        <v>455</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2566,36 +3328,36 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="3">
-        <v>456</v>
-      </c>
-      <c r="B56" t="s" s="4">
-        <v>457</v>
-      </c>
-      <c r="C56" t="s" s="4">
-        <v>458</v>
-      </c>
-      <c r="D56" t="s" s="4">
-        <v>459</v>
-      </c>
-      <c r="E56" t="s" s="4">
-        <v>460</v>
-      </c>
-      <c r="F56" t="s" s="4">
-        <v>461</v>
-      </c>
-      <c r="G56" t="s" s="4">
-        <v>462</v>
-      </c>
-      <c r="H56" t="s" s="4">
-        <v>463</v>
-      </c>
-      <c r="I56" t="s" s="4">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="57">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2607,2059 +3369,2551 @@
       <c r="I57" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" sqref="B14" allowBlank="true" errorStyle="stop" promptTitle="Age Unit" prompt="Please choose required value from the list" errorTitle="Age Unit" error="Required value was not selected" showInputMessage="true">
-      <formula1>lookupage_unit1127</formula1>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Unit" error="Required value was not selected" promptTitle="Age Unit" prompt="Please choose required value from the list" sqref="B14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>lookupage_unit1602</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="B23" allowBlank="true" errorStyle="stop" promptTitle="Research Focus" prompt="Please choose required value from the list" errorTitle="Research Focus" error="Required value was not selected" showInputMessage="true">
-      <formula1>lookupresearch_focus1128</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Research Focus" error="Required value was not selected" promptTitle="Research Focus" prompt="Please choose required value from the list" sqref="B23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>lookupresearch_focus1603</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="B26" allowBlank="true" errorStyle="information" promptTitle="Condition Reported" prompt="Please choose preferred value from the list" errorTitle="Condition Reported" error="Preferred value was not selected" showInputMessage="true">
-      <formula1>lookupcondition_reported1129</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Condition Reported" error="Preferred value was not selected" promptTitle="Condition Reported" prompt="Please choose preferred value from the list" sqref="B26" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>lookupcondition_reported1604</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D30" allowBlank="true" errorStyle="information" promptTitle="Type Reported" prompt="Please choose preferred value from the list" errorTitle="Type Reported" error="Preferred value was not selected" showInputMessage="true">
-      <formula1>lookuptype_reported1130</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Type Reported" error="Preferred value was not selected" promptTitle="Type Reported" prompt="Please choose preferred value from the list" sqref="D30" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>lookuptype_reported1605</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="J34" allowBlank="true" errorStyle="stop" promptTitle="Role In Study" prompt="Please choose required value from the list" errorTitle="Role In Study" error="Required value was not selected" showInputMessage="true">
-      <formula1>lookuprole_in_study1131</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Role In Study" error="Required value was not selected" promptTitle="Role In Study" prompt="Please choose required value from the list" sqref="J34" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>lookuprole_in_study1606</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="C42" allowBlank="true" errorStyle="stop" promptTitle="Criterion Category" prompt="Please choose required value from the list" errorTitle="Criterion Category" error="Required value was not selected" showInputMessage="true">
-      <formula1>lookupcriterion_category1132</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Criterion Category" error="Required value was not selected" promptTitle="Criterion Category" prompt="Please choose required value from the list" sqref="C42" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>lookupcriterion_category1607</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="C49" allowBlank="true" errorStyle="stop" promptTitle="Study File Type" prompt="Please choose required value from the list" errorTitle="Study File Type" error="Required value was not selected" showInputMessage="true">
-      <formula1>lookupstudy_file_type1133</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Protocol ID" error="User defined ID value not selected" promptTitle="Protocol ID" prompt="Please choose user defined ID value from the list" sqref="B45" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>lookupprotocol_id1608</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Study File Type" error="Required value was not selected" promptTitle="Study File Type" prompt="Please choose required value from the list" sqref="C49" xr:uid="{00000000-0002-0000-0000-000007000000}">
+      <formula1>lookupstudy_file_type1609</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:A410"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A509"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="291">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="293">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="372">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="373">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="375">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="386">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="387">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="389">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="390">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="391">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="393">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="394">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="396">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="398">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
         <v>452</v>
       </c>
     </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>550</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>